--- a/lr4/Фильтры.xlsx
+++ b/lr4/Фильтры.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Делитель напряжения" sheetId="1" r:id="rId1"/>
-    <sheet name="Фильтр нижних частот" sheetId="5" r:id="rId2"/>
-    <sheet name="Фильтр верхних частот" sheetId="2" r:id="rId3"/>
-    <sheet name="Фильтр верхних частот_черновая" sheetId="4" r:id="rId4"/>
+    <sheet name="Фильтр верхних частот" sheetId="2" r:id="rId2"/>
+    <sheet name="Фильтр нижних частот" sheetId="5" r:id="rId3"/>
+    <sheet name="Полосовой фильтр " sheetId="8" r:id="rId4"/>
+    <sheet name="Режекторный фильтр" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>Uвх</t>
   </si>
@@ -62,58 +63,13 @@
     <t>В</t>
   </si>
   <si>
-    <t>С</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>нФ</t>
-  </si>
-  <si>
-    <t>кОм</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Фи</t>
   </si>
   <si>
     <t>Fц</t>
   </si>
   <si>
-    <t>Xc</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Xc КОМП</t>
-  </si>
-  <si>
-    <t>Zо</t>
-  </si>
-  <si>
-    <t>Сдвиг по фазе</t>
-  </si>
-  <si>
-    <t>Опережение тока</t>
-  </si>
-  <si>
     <t>Номер варианта</t>
-  </si>
-  <si>
-    <t>x(обобщенная частота)</t>
-  </si>
-  <si>
-    <t>Фи(обобщ)</t>
   </si>
   <si>
     <t>http://www.diagram.com.ua/list/beginner/beginner216.shtml</t>
@@ -122,7 +78,58 @@
     <t>Для информации</t>
   </si>
   <si>
-    <t>τ</t>
+    <t>https://pue8.ru/silovaya-elektronika/887-rs-generatory-s-mostom-vina.html</t>
+  </si>
+  <si>
+    <t>Fц/8</t>
+  </si>
+  <si>
+    <t>Fц/4</t>
+  </si>
+  <si>
+    <t>Fц/2</t>
+  </si>
+  <si>
+    <t>Fц*2</t>
+  </si>
+  <si>
+    <t>Fц*4</t>
+  </si>
+  <si>
+    <t>Fц*8</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>С [нФ]</t>
+  </si>
+  <si>
+    <t>R [кОм]</t>
+  </si>
+  <si>
+    <t>Uвх [В]</t>
+  </si>
+  <si>
+    <t>τ [c]</t>
+  </si>
+  <si>
+    <t>Fц [Гц]</t>
+  </si>
+  <si>
+    <t>F [Гц]</t>
+  </si>
+  <si>
+    <t>Uвых [В]</t>
+  </si>
+  <si>
+    <t>a [с]</t>
+  </si>
+  <si>
+    <t>b [с]</t>
+  </si>
+  <si>
+    <t>φ [гр]</t>
   </si>
 </sst>
 </file>
@@ -133,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,9 +161,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,33 +220,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -314,17 +341,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Фильтр нижних частот'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -351,60 +367,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Фильтр нижних частот'!$B$19:$H$19</c:f>
+              <c:f>'Фильтр верхних частот'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.58888930765461878</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1777786153092376</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3555572306184751</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.7111144612369502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.4222289224739004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18.844457844947801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>37.688915689895602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Фильтр нижних частот'!$B$16:$H$16</c:f>
+              <c:f>'Фильтр верхних частот'!$B$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99227787671366774</c:v>
+                  <c:v>0.12403473458920847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97014250014533188</c:v>
+                  <c:v>0.24253562503633297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89442719099991586</c:v>
+                  <c:v>0.44721359549995793</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44721359549995793</c:v>
+                  <c:v>0.89442719099991586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24253562503633297</c:v>
+                  <c:v>0.97014250014533188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12403473458920847</c:v>
+                  <c:v>0.99227787671366774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,7 +428,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD92-4BB9-A0B7-12135E19662C}"/>
+              <c16:uniqueId val="{00000001-E7EF-4087-A703-1EB069D87D1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,6 +446,7 @@
       <c:valAx>
         <c:axId val="2110599600"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -701,60 +718,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Фильтр нижних частот'!$B$19:$H$19</c:f>
+              <c:f>'Фильтр верхних частот'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.58888930765461878</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1777786153092376</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3555572306184751</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.7111144612369502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.4222289224739004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18.844457844947801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>37.688915689895602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Фильтр нижних частот'!$B$17:$H$17</c:f>
+              <c:f>'Фильтр верхних частот'!$B$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-7.1250163489017977</c:v>
+                  <c:v>82.874983651098205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14.036243467926479</c:v>
+                  <c:v>75.963756532073532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26.56505117707799</c:v>
+                  <c:v>63.43494882292201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-45</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-63.43494882292201</c:v>
+                  <c:v>26.56505117707799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-75.963756532073532</c:v>
+                  <c:v>14.036243467926479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-82.874983651098205</c:v>
+                  <c:v>7.1250163489017977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,7 +779,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77F0-4407-A292-21F71B19722A}"/>
+              <c16:uniqueId val="{00000001-7D23-4D67-8E4C-371060F58753}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -780,6 +797,7 @@
       <c:valAx>
         <c:axId val="1955278528"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1025,6 +1043,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Фильтр нижних частот'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1051,60 +1080,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Фильтр верхних частот'!$B$19:$H$19</c:f>
+              <c:f>'Фильтр нижних частот'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58888930765461878</c:v>
+                  <c:v>1.1777786153092376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1777786153092376</c:v>
+                  <c:v>2.3555572306184751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3555572306184751</c:v>
+                  <c:v>4.7111144612369502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7111144612369502</c:v>
+                  <c:v>9.4222289224739004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4222289224739004</c:v>
+                  <c:v>18.844457844947801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.844457844947801</c:v>
+                  <c:v>37.688915689895602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.688915689895602</c:v>
+                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Фильтр верхних частот'!$B$16:$H$16</c:f>
+              <c:f>'Фильтр нижних частот'!$B$18:$H$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12403473458920847</c:v>
+                  <c:v>0.99227787671366774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24253562503633297</c:v>
+                  <c:v>0.97014250014533188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44721359549995793</c:v>
+                  <c:v>0.89442719099991586</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89442719099991586</c:v>
+                  <c:v>0.44721359549995793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97014250014533188</c:v>
+                  <c:v>0.24253562503633297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99227787671366774</c:v>
+                  <c:v>0.12403473458920847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1141,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7EF-4087-A703-1EB069D87D1F}"/>
+              <c16:uniqueId val="{00000000-AD92-4BB9-A0B7-12135E19662C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1130,6 +1159,7 @@
       <c:valAx>
         <c:axId val="2110599600"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1210,7 +1240,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1401,60 +1431,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Фильтр верхних частот'!$B$19:$H$19</c:f>
+              <c:f>'Фильтр нижних частот'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58888930765461878</c:v>
+                  <c:v>1.1777786153092376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1777786153092376</c:v>
+                  <c:v>2.3555572306184751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3555572306184751</c:v>
+                  <c:v>4.7111144612369502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7111144612369502</c:v>
+                  <c:v>9.4222289224739004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4222289224739004</c:v>
+                  <c:v>18.844457844947801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.844457844947801</c:v>
+                  <c:v>37.688915689895602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.688915689895602</c:v>
+                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Фильтр верхних частот'!$B$17:$H$17</c:f>
+              <c:f>'Фильтр нижних частот'!$B$19:$H$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>82.874983651098205</c:v>
+                  <c:v>-7.1250163489017977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.963756532073532</c:v>
+                  <c:v>-14.036243467926479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.43494882292201</c:v>
+                  <c:v>-26.56505117707799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.56505117707799</c:v>
+                  <c:v>-63.43494882292201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.036243467926479</c:v>
+                  <c:v>-75.963756532073532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1250163489017977</c:v>
+                  <c:v>-82.874983651098205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1492,1411 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D23-4D67-8E4C-371060F58753}"/>
+              <c16:uniqueId val="{00000000-77F0-4407-A292-21F71B19722A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1955278528"/>
+        <c:axId val="1955279776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1955278528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955279776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955279776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955278528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>АЧХ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Полосовой фильтр '!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1777786153092376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3555572306184751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7111144612369502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4222289224739004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.844457844947801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.688915689895602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.377831379791203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Полосовой фильтр '!$B$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.11866510919732927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20823168251814142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29814239699997197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29814239699997197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20823168251814142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11866510919732927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C37-4F00-8D4E-8DC1766C6FCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110599600"/>
+        <c:axId val="2110588368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110599600"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110588368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110588368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110599600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ФЧХ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Полосовой фильтр '!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1777786153092376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3555572306184751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7111144612369502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4222289224739004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.844457844947801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.688915689895602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.377831379791203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Полосовой фильтр '!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-69.145541960421653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-51.340191745909912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-26.56505117707799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.56505117707799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.340191745909912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.145541960421653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D141-46DE-9596-DCF94BF33FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1955278528"/>
+        <c:axId val="1955279776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1955278528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955279776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955279776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955278528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>АЧХ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Режекторный фильтр'!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.98148217942436455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9629643588487291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9259287176974582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8518574353949164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.703714870789833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.407429741579666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.814859483159331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Режекторный фильтр'!$B$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31149591164298934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26028960314767674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14907119849998593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9343245538895856E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14907119849998601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2602896031476768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31149591164298934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8AE-4C0B-8D8E-3DEBB6FBB7DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110599600"/>
+        <c:axId val="2110588368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110599600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110588368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110588368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110599600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ФЧХ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Режекторный фильтр'!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.98148217942436455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9629643588487291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9259287176974582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8518574353949164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.703714870789833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.407429741579666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.814859483159331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Режекторный фильтр'!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20.854458039578351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.659808254090095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.434948822922017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-63.43494882292201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-38.65980825409008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.85445803957834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7A8-4474-9763-1E392754BC50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1560,7 +2994,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1806,6 +3240,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3870,72 +5464,2071 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3947,7 +7540,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3973,13 +7566,216 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4267,15 +8063,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +8082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4297,7 +8093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4309,120 +8105,139 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1">
+        <f>$B$3</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
         <f>$B$3/A7</f>
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <f>$B$5-E7</f>
+      <c r="D7" s="1">
+        <f>$B$5-F7</f>
         <v>500</v>
       </c>
-      <c r="D7" s="1">
-        <f>($B$4^2)*C7</f>
+      <c r="E7" s="1">
+        <f>($B$4^2)*D7</f>
         <v>0.05</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f>$B$5/A7</f>
         <v>500</v>
       </c>
-      <c r="F7" s="1">
-        <f>($B$4^2)*E7</f>
+      <c r="G7" s="1">
+        <f>($B$4^2)*F7</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ref="B8:B10" si="0">$B$3/A8</f>
+        <f t="shared" ref="B8:B10" si="0">$B$3</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$B$3/A8</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="C8" s="1">
-        <f>$B$5-E8</f>
+      <c r="D8" s="1">
+        <f>$B$5-F8</f>
         <v>666.66666666666674</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:D10" si="1">($B$4^2)*C8</f>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E10" si="1">($B$4^2)*D8</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <f>$B$5/A8</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F10" si="2">($B$4^2)*E8</f>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G10" si="2">($B$4^2)*F8</f>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <f>$B$3/A9</f>
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <f>$B$5-E9</f>
+      <c r="D9" s="1">
+        <f>$B$5-F9</f>
         <v>800</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f>$B$5/A9</f>
         <v>200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <f>$B$3/A10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <f>$B$5-E10</f>
+      <c r="D10" s="1">
+        <f>$B$5-F10</f>
         <v>900</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f>$B$5/A10</f>
         <v>100</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -4434,469 +8249,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11">
+        <f>B2*4</f>
+        <v>52</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7">
+        <f>B4*(10^-9)</f>
+        <v>5.2000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11">
+        <f>B2*50</f>
+        <v>650</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="7">
+        <f>B5*1000</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <f>D4*D5</f>
+        <v>3.3800000000000004E-2</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
+        <f>1/(2*3.14*D5*D4)</f>
+        <v>4.7111144612369502</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B12" s="13">
+        <f>$B$8/8</f>
+        <v>0.58888930765461878</v>
+      </c>
+      <c r="C12" s="13">
+        <f>$B$8/4</f>
+        <v>1.1777786153092376</v>
+      </c>
+      <c r="D12" s="13">
+        <f>$B$8/2</f>
+        <v>2.3555572306184751</v>
+      </c>
+      <c r="E12" s="13">
+        <f>$B$8*1</f>
+        <v>4.7111144612369502</v>
+      </c>
+      <c r="F12" s="13">
+        <f>$B$8*2</f>
+        <v>9.4222289224739004</v>
+      </c>
+      <c r="G12" s="13">
+        <f>$B$8*4</f>
+        <v>18.844457844947801</v>
+      </c>
+      <c r="H12" s="13">
+        <f>$B$8*8</f>
+        <v>37.688915689895602</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13">
+        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="13">
+        <f>1/(2*3.14*C12*$D$4*$D$5)</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
+        <f>1/(2*3.14*D12*$D$4*$D$5)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <f>1/(2*3.14*E12*$D$4*$D$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <f>1/(2*3.14*F12*$D$4*$D$5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="13">
+        <f>1/(2*3.14*G12*$D$4*$D$5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="13">
+        <f>1/(2*3.14*H12*$D$4*$D$5)</f>
+        <v>0.125</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f>B2*1</f>
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <f>B4*(10^-9)</f>
-        <v>1.3000000000000001E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f>B2*100</f>
-        <v>1300</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <f>B5*1000</f>
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <f>D4*D5</f>
-        <v>1.6900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <f>1/(2*3.14*D5*D4)</f>
-        <v>9.4222289224739004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="C11" s="5">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="5">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="5">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <f>1*8</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="B14" s="13">
         <f>$B$6</f>
         <v>3</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:H12" si="0">$B$6</f>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:H14" si="0">$B$6</f>
         <v>3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
-        <f>B12*B16</f>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" ref="B15:H15" si="1">B14*B18</f>
+        <v>0.37210420376762543</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.72760687510899891</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3416407864998738</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6832815729997477</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9104275004359956</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="1"/>
         <v>2.9768336301410034</v>
       </c>
-      <c r="C13" s="6">
-        <f>C12*C16</f>
-        <v>2.9104275004359956</v>
-      </c>
-      <c r="D13" s="6">
-        <f>D12*D16</f>
-        <v>2.6832815729997477</v>
-      </c>
-      <c r="E13" s="6">
-        <f>E12*E16</f>
-        <v>2.1213203435596424</v>
-      </c>
-      <c r="F13" s="6">
-        <f>F12*F16</f>
-        <v>1.3416407864998738</v>
-      </c>
-      <c r="G13" s="6">
-        <f>G12*G16</f>
-        <v>0.72760687510899891</v>
-      </c>
-      <c r="H13" s="6">
-        <f>H12*H16</f>
-        <v>0.37210420376762543</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <f>1/B19*2</f>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13">
+        <f>1/B12*2</f>
+        <v>3.3962240000000001</v>
+      </c>
+      <c r="C16" s="13">
+        <f>1/C12*2</f>
         <v>1.6981120000000001</v>
       </c>
-      <c r="C14" s="6">
-        <f>1/C19*2</f>
+      <c r="D16" s="13">
+        <f>1/D12*2</f>
         <v>0.84905600000000003</v>
       </c>
-      <c r="D14" s="6">
-        <f>1/D19*2</f>
+      <c r="E16" s="13">
+        <f>1/E12*2</f>
         <v>0.42452800000000002</v>
       </c>
-      <c r="E14" s="6">
-        <f>1/E19*2</f>
+      <c r="F16" s="13">
+        <f>1/F12*2</f>
         <v>0.21226400000000001</v>
       </c>
-      <c r="F14" s="6">
-        <f>1/F19*2</f>
+      <c r="G16" s="13">
+        <f>1/G12*2</f>
         <v>0.106132</v>
       </c>
-      <c r="G14" s="6">
-        <f>1/G19*2</f>
+      <c r="H16" s="13">
+        <f>1/H12*2</f>
         <v>5.3066000000000002E-2</v>
       </c>
-      <c r="H14" s="6">
-        <f>1/H19*2</f>
-        <v>2.6533000000000001E-2</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
-        <f>(B14/180)*B25</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <f>(C14/180)*C25</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f>(D14/180)*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <f>(E14/180)*E25</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <f>(F14/180)*F25</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f>(G14/180)*G25</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <f>(H14/180)*H25</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <f>1/(SQRT(1+B20^2))</f>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <f>(B16/180)*B19</f>
+        <v>1.5636778248637075</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:H17" si="2">(C16/180)*C19</f>
+        <v>0.71663870295662468</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.29922124393219374</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.106132</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>3.132668901695157E-2</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>8.276081065210961E-3</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1005339865045711E-3</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13">
+        <f>1/(SQRT(1+B13^2))</f>
+        <v>0.12403473458920847</v>
+      </c>
+      <c r="C18" s="13">
+        <f>1/(SQRT(1+C13^2))</f>
+        <v>0.24253562503633297</v>
+      </c>
+      <c r="D18" s="13">
+        <f>1/(SQRT(1+D13^2))</f>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="E18" s="13">
+        <f>1/(SQRT(1+E13^2))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="F18" s="13">
+        <f>1/(SQRT(1+F13^2))</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="G18" s="13">
+        <f>1/(SQRT(1+G13^2))</f>
+        <v>0.97014250014533188</v>
+      </c>
+      <c r="H18" s="13">
+        <f>1/(SQRT(1+H13^2))</f>
         <v>0.99227787671366774</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" ref="C16:H16" si="1">1/(SQRT(1+C20^2))</f>
-        <v>0.97014250014533188</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.24253562503633297</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.12403473458920847</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <f>-DEGREES(ATAN(B20))</f>
-        <v>-7.1250163489017977</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="2">-DEGREES(ATAN(C20))</f>
-        <v>-14.036243467926479</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>-26.56505117707799</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
-        <v>-45</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>-63.43494882292201</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>-75.963756532073532</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>-82.874983651098205</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3">
-        <f>$B$8*B11</f>
-        <v>1.1777786153092376</v>
-      </c>
-      <c r="C19" s="3">
-        <f>$B$8*C11</f>
-        <v>2.3555572306184751</v>
-      </c>
-      <c r="D19" s="3">
-        <f>$B$8*D11</f>
-        <v>4.7111144612369502</v>
-      </c>
-      <c r="E19" s="3">
-        <f>$B$8*E11</f>
-        <v>9.4222289224739004</v>
-      </c>
-      <c r="F19" s="3">
-        <f>$B$8*F11</f>
-        <v>18.844457844947801</v>
-      </c>
-      <c r="G19" s="3">
-        <f>$B$8*G11</f>
-        <v>37.688915689895602</v>
-      </c>
-      <c r="H19" s="3">
-        <f>$B$8*H11</f>
-        <v>75.377831379791203</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <f>DEGREES(ATAN(B13))</f>
+        <v>82.874983651098205</v>
+      </c>
+      <c r="C19" s="13">
+        <f>DEGREES(ATAN(C13))</f>
+        <v>75.963756532073532</v>
+      </c>
+      <c r="D19" s="13">
+        <f>DEGREES(ATAN(D13))</f>
+        <v>63.43494882292201</v>
+      </c>
+      <c r="E19" s="13">
+        <f>DEGREES(ATAN(E13))</f>
+        <v>45</v>
+      </c>
+      <c r="F19" s="13">
+        <f>DEGREES(ATAN(F13))</f>
+        <v>26.56505117707799</v>
+      </c>
+      <c r="G19" s="13">
+        <f>DEGREES(ATAN(G13))</f>
+        <v>14.036243467926479</v>
+      </c>
+      <c r="H19" s="13">
+        <f>DEGREES(ATAN(H13))</f>
+        <v>7.1250163489017977</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3">
-        <f>2*3.14*B19*$D$4*$D$5</f>
-        <v>0.125</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="3">2*3.14*C19*$D$4*$D$5</f>
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4910,439 +8722,417 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2">
+        <f>'Фильтр верхних частот'!B2</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f>B2*4</f>
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15">
+        <f>B2*1</f>
         <v>13</v>
       </c>
       <c r="D4">
         <f>B4*(10^-9)</f>
-        <v>5.2000000000000002E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f>B2*50</f>
-        <v>650</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>1.3000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
+        <f>B2*100</f>
+        <v>1300</v>
       </c>
       <c r="D5">
         <f>B5*1000</f>
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15">
         <f>D4*D5</f>
-        <v>3.3800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>1.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15">
+        <f>1/(2*3.14*D5*D4)</f>
+        <v>9.4222289224739004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <f>1/(2*3.14*D5*D4)</f>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="16">
+        <f>$B$8/8</f>
+        <v>1.1777786153092376</v>
+      </c>
+      <c r="C12" s="16">
+        <f>$B$8/4</f>
+        <v>2.3555572306184751</v>
+      </c>
+      <c r="D12" s="16">
+        <f>$B$8/2</f>
         <v>4.7111144612369502</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <f>1/8</f>
+      <c r="E12" s="16">
+        <f>$B$8</f>
+        <v>9.4222289224739004</v>
+      </c>
+      <c r="F12" s="16">
+        <f>$B$8*2</f>
+        <v>18.844457844947801</v>
+      </c>
+      <c r="G12" s="16">
+        <f>$B$8*4</f>
+        <v>37.688915689895602</v>
+      </c>
+      <c r="H12" s="16">
+        <f>$B$8*8</f>
+        <v>75.377831379791203</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16">
+        <f>2*3.14*B12*$D$4*$D$5</f>
         <v>0.125</v>
       </c>
-      <c r="C11" s="5">
-        <f>1/4</f>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:H13" si="0">2*3.14*C12*$D$4*$D$5</f>
         <v>0.25</v>
       </c>
-      <c r="D11" s="5">
-        <f>1/2</f>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E11" s="5">
-        <f>1</f>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <f>2*1</f>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="5">
-        <f>4*1</f>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H11" s="5">
-        <f>1*8</f>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16">
         <f>$B$6</f>
         <v>3</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:H12" si="0">$B$6</f>
+      <c r="C14" s="16">
+        <f t="shared" ref="C14:H14" si="1">$B$6</f>
         <v>3</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
+      <c r="D14" s="16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
+      <c r="F14" s="16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
-        <f>B12*B16</f>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" ref="B15:H15" si="2">B14*B18</f>
+        <v>2.9768336301410034</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="2"/>
+        <v>2.9104275004359956</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="2"/>
+        <v>2.6832815729997477</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3416407864998738</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.72760687510899891</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="2"/>
         <v>0.37210420376762543</v>
       </c>
-      <c r="C13" s="6">
-        <f>C12*C16</f>
-        <v>0.72760687510899891</v>
-      </c>
-      <c r="D13" s="6">
-        <f>D12*D16</f>
-        <v>1.3416407864998738</v>
-      </c>
-      <c r="E13" s="6">
-        <f>E12*E16</f>
-        <v>2.1213203435596424</v>
-      </c>
-      <c r="F13" s="6">
-        <f>F12*F16</f>
-        <v>2.6832815729997477</v>
-      </c>
-      <c r="G13" s="6">
-        <f>G12*G16</f>
-        <v>2.9104275004359956</v>
-      </c>
-      <c r="H13" s="6">
-        <f>H12*H16</f>
-        <v>2.9768336301410034</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <f>1/B19*2</f>
-        <v>3.3962240000000001</v>
-      </c>
-      <c r="C14" s="6">
-        <f>1/C19*2</f>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="16">
+        <f>1/B12*2</f>
         <v>1.6981120000000001</v>
       </c>
-      <c r="D14" s="6">
-        <f>1/D19*2</f>
+      <c r="C16" s="16">
+        <f>1/C12*2</f>
         <v>0.84905600000000003</v>
       </c>
-      <c r="E14" s="6">
-        <f>1/E19*2</f>
+      <c r="D16" s="16">
+        <f>1/D12*2</f>
         <v>0.42452800000000002</v>
       </c>
-      <c r="F14" s="6">
-        <f>1/F19*2</f>
+      <c r="E16" s="16">
+        <f>1/E12*2</f>
         <v>0.21226400000000001</v>
       </c>
-      <c r="G14" s="6">
-        <f>1/G19*2</f>
+      <c r="F16" s="16">
+        <f>1/F12*2</f>
         <v>0.106132</v>
       </c>
-      <c r="H14" s="6">
-        <f>1/H19*2</f>
+      <c r="G16" s="16">
+        <f>1/G12*2</f>
         <v>5.3066000000000002E-2</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
-        <f>(B14/180)*B25</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <f>(C14/180)*C25</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f>(D14/180)*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <f>(E14/180)*E25</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <f>(F14/180)*F25</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f>(G14/180)*G25</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <f>(H14/180)*H25</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <f>1/(SQRT(1+B20^2))</f>
+      <c r="H16" s="16">
+        <f>1/H12*2</f>
+        <v>2.6533000000000001E-2</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="16">
+        <f>(B16/180)*B19</f>
+        <v>-6.7217087568146275E-2</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:H17" si="3">(C16/180)*C19</f>
+        <v>-6.6208648521687688E-2</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="3"/>
+        <v>-6.265337803390314E-2</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="3"/>
+        <v>-5.3066000000000002E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.7402655491524217E-2</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.2394959467394521E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.2216233006747715E-2</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16">
+        <f>1/(SQRT(1+B13^2))</f>
+        <v>0.99227787671366774</v>
+      </c>
+      <c r="C18" s="16">
+        <f>1/(SQRT(1+C13^2))</f>
+        <v>0.97014250014533188</v>
+      </c>
+      <c r="D18" s="16">
+        <f>1/(SQRT(1+D13^2))</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="E18" s="16">
+        <f>1/(SQRT(1+E13^2))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="F18" s="16">
+        <f>1/(SQRT(1+F13^2))</f>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="G18" s="16">
+        <f>1/(SQRT(1+G13^2))</f>
+        <v>0.24253562503633297</v>
+      </c>
+      <c r="H18" s="16">
+        <f>1/(SQRT(1+H13^2))</f>
         <v>0.12403473458920847</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" ref="C16:H16" si="1">1/(SQRT(1+C20^2))</f>
-        <v>0.24253562503633297</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97014250014533188</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99227787671366774</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <f>DEGREES(ATAN(B20))</f>
-        <v>82.874983651098205</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="2">DEGREES(ATAN(C20))</f>
-        <v>75.963756532073532</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>63.43494882292201</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>26.56505117707799</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>14.036243467926479</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>7.1250163489017977</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3">
-        <f>$B$8*B11</f>
-        <v>0.58888930765461878</v>
-      </c>
-      <c r="C19" s="3">
-        <f>$B$8*C11</f>
-        <v>1.1777786153092376</v>
-      </c>
-      <c r="D19" s="3">
-        <f>$B$8*D11</f>
-        <v>2.3555572306184751</v>
-      </c>
-      <c r="E19" s="3">
-        <f>$B$8*E11</f>
-        <v>4.7111144612369502</v>
-      </c>
-      <c r="F19" s="3">
-        <f>$B$8*F11</f>
-        <v>9.4222289224739004</v>
-      </c>
-      <c r="G19" s="3">
-        <f>$B$8*G11</f>
-        <v>18.844457844947801</v>
-      </c>
-      <c r="H19" s="3">
-        <f>$B$8*H11</f>
-        <v>37.688915689895602</v>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="16">
+        <f>-DEGREES(ATAN(B13))</f>
+        <v>-7.1250163489017977</v>
+      </c>
+      <c r="C19" s="16">
+        <f>-DEGREES(ATAN(C13))</f>
+        <v>-14.036243467926479</v>
+      </c>
+      <c r="D19" s="16">
+        <f>-DEGREES(ATAN(D13))</f>
+        <v>-26.56505117707799</v>
+      </c>
+      <c r="E19" s="16">
+        <f>-DEGREES(ATAN(E13))</f>
+        <v>-45</v>
+      </c>
+      <c r="F19" s="16">
+        <f>-DEGREES(ATAN(F13))</f>
+        <v>-63.43494882292201</v>
+      </c>
+      <c r="G19" s="16">
+        <f>-DEGREES(ATAN(G13))</f>
+        <v>-75.963756532073532</v>
+      </c>
+      <c r="H19" s="16">
+        <f>-DEGREES(ATAN(H13))</f>
+        <v>-82.874983651098205</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3">
-        <f>1/(2*3.14*B19*$D$4*$D$5)</f>
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="3">1/(2*3.14*C19*$D$4*$D$5)</f>
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -5373,6 +9163,26 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5386,633 +9196,935 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="B2" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11">
         <f>B2*1</f>
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="17"/>
+      <c r="D4" s="7">
         <f>B4*(10^-9)</f>
         <v>1.3000000000000001E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11">
         <f>B2*100</f>
         <v>1300</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="17"/>
+      <c r="D5" s="7">
         <f>B5*1000</f>
         <v>1300000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <f>D4*D5</f>
+        <v>1.6900000000000002E-2</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
         <f>1/(2*3.14*D5*D4)</f>
         <v>9.4222289224739004</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <f>1/8</f>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13">
+        <f>$B$8/8</f>
+        <v>1.1777786153092376</v>
+      </c>
+      <c r="C12" s="13">
+        <f>$B$8/4</f>
+        <v>2.3555572306184751</v>
+      </c>
+      <c r="D12" s="13">
+        <f>$B$8/2</f>
+        <v>4.7111144612369502</v>
+      </c>
+      <c r="E12" s="13">
+        <f>$B$8*1</f>
+        <v>9.4222289224739004</v>
+      </c>
+      <c r="F12" s="13">
+        <f>$B$8*2</f>
+        <v>18.844457844947801</v>
+      </c>
+      <c r="G12" s="13">
+        <f>$B$8*4</f>
+        <v>37.688915689895602</v>
+      </c>
+      <c r="H12" s="13">
+        <f>$B$8*8</f>
+        <v>75.377831379791203</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13">
+        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="13">
+        <f>1/(2*3.14*C12*$D$4*$D$5)</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
+        <f>1/(2*3.14*D12*$D$4*$D$5)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <f>1/(2*3.14*E12*$D$4*$D$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <f>1/(2*3.14*F12*$D$4*$D$5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="13">
+        <f>1/(2*3.14*G12*$D$4*$D$5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="13">
+        <f>1/(2*3.14*H12*$D$4*$D$5)</f>
         <v>0.125</v>
       </c>
-      <c r="C11" s="5">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="5">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="5">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <f>1*8</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="13">
         <f>$B$6</f>
         <v>3</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:H12" si="0">$B$6</f>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:H14" si="0">$B$6</f>
         <v>3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" ref="B15:H15" si="1">B14*B18</f>
+        <v>0.35599532759198782</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.62469504755442429</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.89442719099991597</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B13" s="6">
-        <f>B12*B16</f>
-        <v>0.37210420376762543</v>
-      </c>
-      <c r="C13" s="6">
-        <f>C12*C16</f>
-        <v>0.72760687510899902</v>
-      </c>
-      <c r="D13" s="6">
-        <f>D12*D16</f>
-        <v>1.3416407864998741</v>
-      </c>
-      <c r="E13" s="6">
-        <f>E12*E16</f>
-        <v>2.1213203435596428</v>
-      </c>
-      <c r="F13" s="6">
-        <f>F12*F16</f>
-        <v>2.6832815729997481</v>
-      </c>
-      <c r="G13" s="6">
-        <f>G12*G16</f>
-        <v>2.9104275004359961</v>
-      </c>
-      <c r="H13" s="6">
-        <f>H12*H16</f>
-        <v>2.9768336301410034</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <f>1/B20*2</f>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.89442719099991597</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.62469504755442429</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35599532759198782</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13">
+        <f>1/B12*2</f>
         <v>1.6981120000000001</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" ref="C14:G14" si="1">1/C20*2</f>
+      <c r="C16" s="13">
+        <f>1/C12*2</f>
         <v>0.84905600000000003</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="1"/>
+      <c r="D16" s="13">
+        <f>1/D12*2</f>
         <v>0.42452800000000002</v>
       </c>
-      <c r="E14" s="6">
-        <f>1/E20*2</f>
+      <c r="E16" s="13">
+        <f>1/E12*2</f>
         <v>0.21226400000000001</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
+      <c r="F16" s="13">
+        <f>1/F12*2</f>
         <v>0.106132</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
+      <c r="G16" s="13">
+        <f>1/G12*2</f>
         <v>5.3066000000000002E-2</v>
       </c>
-      <c r="H14" s="6">
-        <f>1/H20*2</f>
+      <c r="H16" s="13">
+        <f>1/H12*2</f>
         <v>2.6533000000000001E-2</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" ref="B15:D15" si="2">(B14/180)*B26</f>
-        <v>-0.78223547247979119</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <f>(B16/180)*B19</f>
+        <v>-0.65231596971941963</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:H17" si="2">(C16/180)*C19</f>
+        <v>-0.24217054357230713</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="2"/>
-        <v>-0.35850109625583582</v>
-      </c>
-      <c r="D15" s="6">
+        <v>-6.265337803390314E-2</v>
+      </c>
+      <c r="E17" s="13">
         <f t="shared" si="2"/>
-        <v>-0.14968650664576097</v>
-      </c>
-      <c r="E15" s="6">
-        <f>(E14/180)*E26</f>
-        <v>-5.3092915845667499E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <f>(F14/180)*F26</f>
-        <v>-1.5671289184227215E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <f>(G14/180)*G26</f>
-        <v>-4.1401394068440005E-3</v>
-      </c>
-      <c r="H15" s="6">
-        <f>(H14/180)*H26</f>
-        <v>-1.0507997039201312E-3</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <f>$D$5/(SQRT($D$5*$D$5+B22*B22))</f>
-        <v>0.12403473458920847</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" ref="C16:H16" si="3">$D$5/(SQRT($D$5*$D$5+C22*C22))</f>
-        <v>0.242535625036333</v>
-      </c>
-      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5663344508475785E-2</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5135658973269196E-2</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0192437026865932E-2</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13">
+        <f>1/(SQRT((1/B13-B13)^2+9))</f>
+        <v>0.11866510919732927</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:H18" si="3">1/(SQRT((1/C13-C13)^2+9))</f>
+        <v>0.20823168251814142</v>
+      </c>
+      <c r="D18" s="13">
         <f t="shared" si="3"/>
-        <v>0.44721359549995798</v>
-      </c>
-      <c r="E16" s="6">
+        <v>0.29814239699997197</v>
+      </c>
+      <c r="E18" s="13">
         <f t="shared" si="3"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="F16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="3"/>
-        <v>0.89442719099991597</v>
-      </c>
-      <c r="G16" s="6">
+        <v>0.29814239699997197</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="3"/>
-        <v>0.97014250014533199</v>
-      </c>
-      <c r="H16" s="6">
+        <v>0.20823168251814142</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="3"/>
-        <v>0.99227787671366774</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
-        <f>180*(B15/B14)</f>
-        <v>-82.917019046071417</v>
-      </c>
-      <c r="C17" s="6">
-        <f>180*(C15/C14)</f>
-        <v>-76.002286452307558</v>
-      </c>
-      <c r="D17" s="6">
-        <f>180*(D15/D14)</f>
-        <v>-63.46712394997968</v>
-      </c>
-      <c r="E17" s="6">
-        <f>180*(E15/E14)</f>
-        <v>-45.022824653356906</v>
-      </c>
-      <c r="F17" s="6">
-        <f>180*(F15/F14)</f>
-        <v>-26.578525356734055</v>
-      </c>
-      <c r="G17" s="6">
-        <f>180*(G15/G14)</f>
-        <v>-14.043362854406212</v>
-      </c>
-      <c r="H17" s="6">
-        <f>180*(H15/H14)</f>
-        <v>-7.1286302606423551</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3">
-        <f>-DEGREES(ATAN(B21))</f>
-        <v>-7.1250163489017977</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:H18" si="4">-DEGREES(ATAN(C21))</f>
-        <v>-14.036243467926479</v>
-      </c>
-      <c r="D18" s="3">
+        <v>0.11866510919732927</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <f>DEGREES(ATAN((1-B13^2)/(3*B13)))</f>
+        <v>-69.145541960421653</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:H19" si="4">DEGREES(ATAN((1-C13^2)/(3*C13)))</f>
+        <v>-51.340191745909912</v>
+      </c>
+      <c r="D19" s="13">
         <f t="shared" si="4"/>
         <v>-26.56505117707799</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="13">
         <f t="shared" si="4"/>
-        <v>-45</v>
-      </c>
-      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
         <f t="shared" si="4"/>
-        <v>-63.43494882292201</v>
-      </c>
-      <c r="G18" s="3">
+        <v>26.56505117707799</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="4"/>
-        <v>-75.963756532073532</v>
-      </c>
-      <c r="H18" s="3">
+        <v>51.340191745909912</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="4"/>
-        <v>-82.874983651098205</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>69.145541960421653</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <f>$B$8*B11</f>
-        <v>1.1777786153092376</v>
-      </c>
-      <c r="C20" s="3">
-        <f>$B$8*C11</f>
-        <v>2.3555572306184751</v>
-      </c>
-      <c r="D20" s="3">
-        <f>$B$8*D11</f>
-        <v>4.7111144612369502</v>
-      </c>
-      <c r="E20" s="3">
-        <f>$B$8*E11</f>
-        <v>9.4222289224739004</v>
-      </c>
-      <c r="F20" s="3">
-        <f>$B$8*F11</f>
-        <v>18.844457844947801</v>
-      </c>
-      <c r="G20" s="3">
-        <f>$B$8*G11</f>
-        <v>37.688915689895602</v>
-      </c>
-      <c r="H20" s="3">
-        <f>$B$8*H11</f>
-        <v>75.377831379791203</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3">
-        <f>2*3.14*B20*$D$4*$D$5</f>
-        <v>0.125</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:H21" si="5">2*3.14*C20*$D$4*$D$5</f>
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <f>1/(2*3.14*B20*$D$4)</f>
-        <v>10400000</v>
-      </c>
-      <c r="C22" s="4">
-        <f>1/(2*3.14*C20*$D$4)</f>
-        <v>5200000</v>
-      </c>
-      <c r="D22" s="4">
-        <f>1/(2*3.14*D20*$D$4)</f>
-        <v>2600000</v>
-      </c>
-      <c r="E22" s="4">
-        <f>1/(2*3.14*E20*$D$4)</f>
-        <v>1300000</v>
-      </c>
-      <c r="F22" s="4">
-        <f>1/(2*3.14*F20*$D$4)</f>
-        <v>650000</v>
-      </c>
-      <c r="G22" s="4">
-        <f>1/(2*3.14*G20*$D$4)</f>
-        <v>325000</v>
-      </c>
-      <c r="H22" s="4">
-        <f>1/(2*3.14*H20*$D$4)</f>
-        <v>162500</v>
-      </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f>COMPLEX(0,B22)</f>
-        <v>10400000i</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" ref="C23:H23" si="6">COMPLEX(0,C22)</f>
-        <v>5200000i</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2600000i</v>
-      </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1300000i</v>
-      </c>
-      <c r="F23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>650000i</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>325000i</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>162500i</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f>IMSUM(B23,$D$5)</f>
-        <v>1300000+10400000i</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" ref="C24:H24" si="7">IMSUM(C23,$D$5)</f>
-        <v>1300000+5200000i</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1300000+2600000i</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1300000+1300000i</v>
-      </c>
-      <c r="F24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1300000+650000i</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1300000+325000i</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1300000+162500i</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f>IMDIV(B12,B24)</f>
-        <v>3,55029585798817E-08-2,84023668639053E-07i</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f>IMDIV(C12,C24)</f>
-        <v>1,35746606334842E-07-5,42986425339367E-07i</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f>IMDIV(D12,D24)</f>
-        <v>4,61538461538462E-07-9,23076923076923E-07i</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f>IMDIV(E12,E24)</f>
-        <v>1,15384615384615E-06-1,15384615384615E-06i</v>
-      </c>
-      <c r="F25" s="3" t="str">
-        <f>IMDIV(F12,F24)</f>
-        <v>1,84615384615385E-06-9,23076923076923E-07i</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f>IMDIV(G12,G24)</f>
-        <v>2,17194570135747E-06-5,42986425339367E-07i</v>
-      </c>
-      <c r="H25" s="3" t="str">
-        <f>IMDIV(H12,H24)</f>
-        <v>2,27218934911243E-06-2,84023668639053E-07i</v>
-      </c>
-      <c r="I25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <f>(ATAN(IMAGINARY(B25)/IMREAL(B25))*180)/3.14</f>
-        <v>-82.917019046071417</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:H26" si="8">ATAN(IMAGINARY(C25)/IMREAL(C25))*180/3.14</f>
-        <v>-76.002286452307558</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="8"/>
-        <v>-63.467123949979687</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="8"/>
-        <v>-45.022824653356906</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="8"/>
-        <v>-26.578525356734055</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="8"/>
-        <v>-14.043362854406212</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="8"/>
-        <v>-7.1286302606423559</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <f>B26/(360*B20)</f>
-        <v>-0.19555886811994783</v>
-      </c>
-      <c r="C27" s="3">
-        <f>C26/(360*C20)</f>
-        <v>-8.9625274063958954E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <f>D26/(360*D20)</f>
-        <v>-3.7421626661440242E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <f>E26/(360*E20)</f>
-        <v>-1.3273228961416875E-2</v>
-      </c>
-      <c r="F27" s="3">
-        <f>F26/(360*F20)</f>
-        <v>-3.9178222960568037E-3</v>
-      </c>
-      <c r="G27" s="3">
-        <f>G26/(360*G20)</f>
-        <v>-1.0350348517110001E-3</v>
-      </c>
-      <c r="H27" s="3">
-        <f>H26/(360*H20)</f>
-        <v>-2.626999259800328E-4</v>
-      </c>
-      <c r="I27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <f>'Фильтр верхних частот'!B2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15">
+        <f>B2*2</f>
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <f>B4*(10^-9)</f>
+        <v>2.6000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
+        <f>B2*60</f>
+        <v>780</v>
+      </c>
+      <c r="D5">
+        <f>B5*1000</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15">
+        <f>D4*D5</f>
+        <v>2.0279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15">
+        <f>1/(2*3.14*D5*D4)</f>
+        <v>7.8518574353949164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="16">
+        <f>$B$8/8</f>
+        <v>0.98148217942436455</v>
+      </c>
+      <c r="C12" s="16">
+        <f>$B$8/4</f>
+        <v>1.9629643588487291</v>
+      </c>
+      <c r="D12" s="16">
+        <f>$B$8/2</f>
+        <v>3.9259287176974582</v>
+      </c>
+      <c r="E12" s="16">
+        <f>$B$8</f>
+        <v>7.8518574353949164</v>
+      </c>
+      <c r="F12" s="16">
+        <f>$B$8*2</f>
+        <v>15.703714870789833</v>
+      </c>
+      <c r="G12" s="16">
+        <f>$B$8*4</f>
+        <v>31.407429741579666</v>
+      </c>
+      <c r="H12" s="16">
+        <f>$B$8*8</f>
+        <v>62.814859483159331</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16">
+        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
+        <v>7.9999999999999982</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:H13" si="0">1/(2*3.14*C12*$D$4*$D$5)</f>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16">
+        <f>$B$6</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" ref="C14:H14" si="1">$B$6</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16">
+        <f>B14*B18</f>
+        <v>0.93448773492896797</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:H15" si="2">C14*C18</f>
+        <v>0.78086880944303028</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.44721359549995776</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4802973661668756E-16</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.44721359549995804</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.78086880944303039</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.93448773492896797</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="16">
+        <f>1/B12*2</f>
+        <v>2.0377344000000002</v>
+      </c>
+      <c r="C16" s="16">
+        <f>1/C12*2</f>
+        <v>1.0188672000000001</v>
+      </c>
+      <c r="D16" s="16">
+        <f>1/D12*2</f>
+        <v>0.50943360000000004</v>
+      </c>
+      <c r="E16" s="16">
+        <f>1/E12*2</f>
+        <v>0.25471680000000002</v>
+      </c>
+      <c r="F16" s="16">
+        <f>1/F12*2</f>
+        <v>0.12735840000000001</v>
+      </c>
+      <c r="G16" s="16">
+        <f>1/G12*2</f>
+        <v>6.3679200000000005E-2</v>
+      </c>
+      <c r="H16" s="16">
+        <f>1/H12*2</f>
+        <v>3.1839600000000003E-2</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="16">
+        <f>(B16/180)*B19</f>
+        <v>0.23608803633669651</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:H17" si="3">(C16/180)*C19</f>
+        <v>0.21882894771323147</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17953274635931626</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.12735840000000001</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="3"/>
+        <v>-4.4883186589829059E-2</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.3676809232076963E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.6888755677608807E-3</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16">
+        <f>ABS((1-B13^2)/(3*SQRT((1-B13^2)^2+9*(B13^2))))</f>
+        <v>0.31149591164298934</v>
+      </c>
+      <c r="C18" s="16">
+        <f>ABS((1-C13^2)/(3*SQRT((1-C13^2)^2+9*(C13^2))))</f>
+        <v>0.26028960314767674</v>
+      </c>
+      <c r="D18" s="16">
+        <f>ABS((1-D13^2)/(3*SQRT((1-D13^2)^2+9*(D13^2))))</f>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="E18" s="16">
+        <f>ABS((1-E13^2)/(3*SQRT((1-E13^2)^2+9*(E13^2))))</f>
+        <v>4.9343245538895856E-17</v>
+      </c>
+      <c r="F18" s="16">
+        <f>ABS((1-F13^2)/(3*SQRT((1-F13^2)^2+9*(F13^2))))</f>
+        <v>0.14907119849998601</v>
+      </c>
+      <c r="G18" s="16">
+        <f>ABS((1-G13^2)/(3*SQRT((1-G13^2)^2+9*(G13^2))))</f>
+        <v>0.2602896031476768</v>
+      </c>
+      <c r="H18" s="16">
+        <f>ABS((1-H13^2)/(3*SQRT((1-H13^2)^2+9*(H13^2))))</f>
+        <v>0.31149591164298934</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="16">
+        <f>DEGREES(ATAN((3*B13)/(B13^2-1)))</f>
+        <v>20.854458039578351</v>
+      </c>
+      <c r="C19" s="16">
+        <f>DEGREES(ATAN((3*C13)/(C13^2-1)))</f>
+        <v>38.659808254090095</v>
+      </c>
+      <c r="D19" s="16">
+        <f>DEGREES(ATAN((3*D13)/(D13^2-1)))</f>
+        <v>63.434948822922017</v>
+      </c>
+      <c r="E19" s="16">
+        <f>DEGREES(ATAN((3*E13)/(E13^2-1)))</f>
+        <v>-90</v>
+      </c>
+      <c r="F19" s="16">
+        <f>DEGREES(ATAN((3*F13)/(F13^2-1)))</f>
+        <v>-63.43494882292201</v>
+      </c>
+      <c r="G19" s="16">
+        <f>DEGREES(ATAN((3*G13)/(G13^2-1)))</f>
+        <v>-38.65980825409008</v>
+      </c>
+      <c r="H19" s="16">
+        <f>DEGREES(ATAN((3*H13)/(H13^2-1)))</f>
+        <v>-20.85445803957834</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/lr4/Фильтры.xlsx
+++ b/lr4/Фильтры.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Делитель напряжения" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Fц*8</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>С [нФ]</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   <si>
     <t>φ [гр]</t>
   </si>
+  <si>
+    <t>Ω</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -244,6 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -372,25 +380,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58888930765461878</c:v>
+                  <c:v>1.1777786153092376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1777786153092376</c:v>
+                  <c:v>2.3555572306184751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3555572306184751</c:v>
+                  <c:v>4.7111144612369502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7111144612369502</c:v>
+                  <c:v>9.4222289224739004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4222289224739004</c:v>
+                  <c:v>18.844457844947801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.844457844947801</c:v>
+                  <c:v>37.688915689895602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.688915689895602</c:v>
+                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,25 +731,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58888930765461878</c:v>
+                  <c:v>1.1777786153092376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1777786153092376</c:v>
+                  <c:v>2.3555572306184751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3555572306184751</c:v>
+                  <c:v>4.7111144612369502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7111144612369502</c:v>
+                  <c:v>9.4222289224739004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4222289224739004</c:v>
+                  <c:v>18.844457844947801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.844457844947801</c:v>
+                  <c:v>37.688915689895602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.688915689895602</c:v>
+                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,25 +1093,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.58888930765461878</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1777786153092376</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3555572306184751</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.7111144612369502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.4222289224739004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18.844457844947801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>37.688915689895602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,25 +1444,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.58888930765461878</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1777786153092376</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3555572306184751</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.7111144612369502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.4222289224739004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18.844457844947801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>37.688915689895602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.377831379791203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2068,7 +2075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2168,25 +2174,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-69.145541960421653</c:v>
+                  <c:v>69.145541960421653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-51.340191745909912</c:v>
+                  <c:v>51.340191745909912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26.56505117707799</c:v>
+                  <c:v>26.56505117707799</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.56505117707799</c:v>
+                  <c:v>-26.56505117707799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.340191745909912</c:v>
+                  <c:v>-51.340191745909912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.145541960421653</c:v>
+                  <c:v>-69.145541960421653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2523,16 +2528,16 @@
                   <c:v>0.31149591164298934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26028960314767674</c:v>
+                  <c:v>0.2602896031476768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14907119849998593</c:v>
+                  <c:v>0.14907119849998599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9343245538895856E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14907119849998601</c:v>
+                  <c:v>0.14907119849998599</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2602896031476768</c:v>
@@ -2564,6 +2569,7 @@
       <c:valAx>
         <c:axId val="2110599600"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2770,7 +2776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2870,25 +2875,25 @@
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20.854458039578351</c:v>
+                  <c:v>-20.854458039578347</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-38.659808254090095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-63.43494882292201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.43494882292201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>38.659808254090095</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.434948822922017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-63.43494882292201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-38.65980825409008</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20.85445803957834</c:v>
+                  <c:v>20.854458039578347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,6 +2919,7 @@
       <c:valAx>
         <c:axId val="1955278528"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8251,8 +8257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8282,35 +8288,35 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11">
-        <f>B2*4</f>
-        <v>52</v>
+        <f>B2*1</f>
+        <v>13</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="7">
         <f>B4*(10^-9)</f>
-        <v>5.2000000000000002E-8</v>
+        <v>1.3000000000000001E-8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11">
-        <f>B2*50</f>
-        <v>650</v>
+        <f>B2*100</f>
+        <v>1300</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="7">
         <f>B5*1000</f>
-        <v>650000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
         <v>3</v>
@@ -8319,21 +8325,21 @@
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
         <f>D4*D5</f>
-        <v>3.3800000000000004E-2</v>
+        <v>1.6900000000000002E-2</v>
       </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
         <f>1/(2*3.14*D5*D4)</f>
-        <v>4.7111144612369502</v>
+        <v>9.4222289224739004</v>
       </c>
       <c r="C8" s="17"/>
     </row>
@@ -8364,205 +8370,205 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="13">
         <f>$B$8/8</f>
-        <v>0.58888930765461878</v>
+        <v>1.1777786153092376</v>
       </c>
       <c r="C12" s="13">
         <f>$B$8/4</f>
-        <v>1.1777786153092376</v>
+        <v>2.3555572306184751</v>
       </c>
       <c r="D12" s="13">
         <f>$B$8/2</f>
-        <v>2.3555572306184751</v>
+        <v>4.7111144612369502</v>
       </c>
       <c r="E12" s="13">
         <f>$B$8*1</f>
-        <v>4.7111144612369502</v>
+        <v>9.4222289224739004</v>
       </c>
       <c r="F12" s="13">
         <f>$B$8*2</f>
-        <v>9.4222289224739004</v>
+        <v>18.844457844947801</v>
       </c>
       <c r="G12" s="13">
         <f>$B$8*4</f>
-        <v>18.844457844947801</v>
+        <v>37.688915689895602</v>
       </c>
       <c r="H12" s="13">
         <f>$B$8*8</f>
-        <v>37.688915689895602</v>
+        <v>75.377831379791203</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="13">
-        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
+        <f t="shared" ref="B13:H13" si="0">1/(2*3.14*B12*$D$4*$D$5)</f>
         <v>8</v>
       </c>
       <c r="C13" s="13">
-        <f>1/(2*3.14*C12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D13" s="13">
-        <f>1/(2*3.14*D12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13" s="13">
-        <f>1/(2*3.14*E12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="13">
-        <f>1/(2*3.14*F12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G13" s="13">
-        <f>1/(2*3.14*G12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="H13" s="13">
-        <f>1/(2*3.14*H12*$D$4*$D$5)</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="13">
         <f>$B$6</f>
         <v>3</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:H14" si="0">$B$6</f>
+        <f t="shared" ref="C14:H14" si="1">$B$6</f>
         <v>3</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" ref="B15:H15" si="1">B14*B18</f>
+        <f t="shared" ref="B15:H15" si="2">B14*B18</f>
         <v>0.37210420376762543</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72760687510899891</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3416407864998738</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1213203435596424</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6832815729997477</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9104275004359956</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9768336301410034</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="13">
-        <f>1/B12*2</f>
-        <v>3.3962240000000001</v>
+        <f t="shared" ref="B16:H16" si="3">1/B12*2</f>
+        <v>1.6981120000000001</v>
       </c>
       <c r="C16" s="13">
-        <f>1/C12*2</f>
-        <v>1.6981120000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.84905600000000003</v>
       </c>
       <c r="D16" s="13">
-        <f>1/D12*2</f>
-        <v>0.84905600000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.42452800000000002</v>
       </c>
       <c r="E16" s="13">
-        <f>1/E12*2</f>
-        <v>0.42452800000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.21226400000000001</v>
       </c>
       <c r="F16" s="13">
-        <f>1/F12*2</f>
-        <v>0.21226400000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.106132</v>
       </c>
       <c r="G16" s="13">
-        <f>1/G12*2</f>
-        <v>0.106132</v>
+        <f t="shared" si="3"/>
+        <v>5.3066000000000002E-2</v>
       </c>
       <c r="H16" s="13">
-        <f>1/H12*2</f>
-        <v>5.3066000000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.6533000000000001E-2</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="13">
         <f>(B16/180)*B19</f>
-        <v>1.5636778248637075</v>
+        <v>0.78183891243185377</v>
       </c>
       <c r="C17" s="13">
-        <f t="shared" ref="C17:H17" si="2">(C16/180)*C19</f>
-        <v>0.71663870295662468</v>
+        <f t="shared" ref="C17:H17" si="4">(C16/180)*C19</f>
+        <v>0.35831935147831234</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.29922124393219374</v>
+        <f t="shared" si="4"/>
+        <v>0.14961062196609687</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.106132</v>
+        <f t="shared" si="4"/>
+        <v>5.3066000000000002E-2</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="2"/>
-        <v>3.132668901695157E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5663344508475785E-2</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="2"/>
-        <v>8.276081065210961E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.1380405326054805E-3</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="2"/>
-        <v>2.1005339865045711E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0502669932522855E-3</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -8571,65 +8577,65 @@
         <v>11</v>
       </c>
       <c r="B18" s="13">
-        <f>1/(SQRT(1+B13^2))</f>
+        <f t="shared" ref="B18:H18" si="5">1/(SQRT(1+B13^2))</f>
         <v>0.12403473458920847</v>
       </c>
       <c r="C18" s="13">
-        <f>1/(SQRT(1+C13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.24253562503633297</v>
       </c>
       <c r="D18" s="13">
-        <f>1/(SQRT(1+D13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.44721359549995793</v>
       </c>
       <c r="E18" s="13">
-        <f>1/(SQRT(1+E13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="F18" s="13">
-        <f>1/(SQRT(1+F13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="G18" s="13">
-        <f>1/(SQRT(1+G13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="H18" s="13">
-        <f>1/(SQRT(1+H13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.99227787671366774</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="13">
-        <f>DEGREES(ATAN(B13))</f>
+        <f t="shared" ref="B19:H19" si="6">DEGREES(ATAN(B13))</f>
         <v>82.874983651098205</v>
       </c>
       <c r="C19" s="13">
-        <f>DEGREES(ATAN(C13))</f>
+        <f t="shared" si="6"/>
         <v>75.963756532073532</v>
       </c>
       <c r="D19" s="13">
-        <f>DEGREES(ATAN(D13))</f>
+        <f t="shared" si="6"/>
         <v>63.43494882292201</v>
       </c>
       <c r="E19" s="13">
-        <f>DEGREES(ATAN(E13))</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F19" s="13">
-        <f>DEGREES(ATAN(F13))</f>
+        <f t="shared" si="6"/>
         <v>26.56505117707799</v>
       </c>
       <c r="G19" s="13">
-        <f>DEGREES(ATAN(G13))</f>
+        <f t="shared" si="6"/>
         <v>14.036243467926479</v>
       </c>
       <c r="H19" s="13">
-        <f>DEGREES(ATAN(H13))</f>
+        <f t="shared" si="6"/>
         <v>7.1250163489017977</v>
       </c>
       <c r="I19" s="6"/>
@@ -8724,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8755,33 +8761,33 @@
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="15">
-        <f>B2*1</f>
-        <v>13</v>
+        <f>B2*4</f>
+        <v>52</v>
       </c>
       <c r="D4">
         <f>B4*(10^-9)</f>
-        <v>1.3000000000000001E-8</v>
+        <v>5.2000000000000002E-8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15">
-        <f>B2*100</f>
-        <v>1300</v>
+        <f>B2*50</f>
+        <v>650</v>
       </c>
       <c r="D5">
         <f>B5*1000</f>
-        <v>1300000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -8789,20 +8795,20 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15">
         <f>D4*D5</f>
-        <v>1.6900000000000002E-2</v>
+        <v>3.3800000000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="15">
         <f>1/(2*3.14*D5*D4)</f>
-        <v>9.4222289224739004</v>
+        <v>4.7111144612369502</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8838,41 +8844,41 @@
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16">
         <f>$B$8/8</f>
-        <v>1.1777786153092376</v>
+        <v>0.58888930765461878</v>
       </c>
       <c r="C12" s="16">
         <f>$B$8/4</f>
-        <v>2.3555572306184751</v>
+        <v>1.1777786153092376</v>
       </c>
       <c r="D12" s="16">
         <f>$B$8/2</f>
-        <v>4.7111144612369502</v>
+        <v>2.3555572306184751</v>
       </c>
       <c r="E12" s="16">
         <f>$B$8</f>
-        <v>9.4222289224739004</v>
+        <v>4.7111144612369502</v>
       </c>
       <c r="F12" s="16">
         <f>$B$8*2</f>
-        <v>18.844457844947801</v>
+        <v>9.4222289224739004</v>
       </c>
       <c r="G12" s="16">
         <f>$B$8*4</f>
-        <v>37.688915689895602</v>
+        <v>18.844457844947801</v>
       </c>
       <c r="H12" s="16">
         <f>$B$8*8</f>
-        <v>75.377831379791203</v>
+        <v>37.688915689895602</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
+      <c r="A13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="16">
         <f>2*3.14*B12*$D$4*$D$5</f>
@@ -8906,7 +8912,7 @@
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16">
         <f>$B$6</f>
@@ -8940,7 +8946,7 @@
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ref="B15:H15" si="2">B14*B18</f>
@@ -8974,69 +8980,69 @@
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="16">
-        <f>1/B12*2</f>
+        <f t="shared" ref="B16:H16" si="3">1/B12*2</f>
+        <v>3.3962240000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="3"/>
         <v>1.6981120000000001</v>
       </c>
-      <c r="C16" s="16">
-        <f>1/C12*2</f>
+      <c r="D16" s="16">
+        <f t="shared" si="3"/>
         <v>0.84905600000000003</v>
       </c>
-      <c r="D16" s="16">
-        <f>1/D12*2</f>
+      <c r="E16" s="16">
+        <f t="shared" si="3"/>
         <v>0.42452800000000002</v>
       </c>
-      <c r="E16" s="16">
-        <f>1/E12*2</f>
+      <c r="F16" s="16">
+        <f t="shared" si="3"/>
         <v>0.21226400000000001</v>
       </c>
-      <c r="F16" s="16">
-        <f>1/F12*2</f>
+      <c r="G16" s="16">
+        <f t="shared" si="3"/>
         <v>0.106132</v>
       </c>
-      <c r="G16" s="16">
-        <f>1/G12*2</f>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
         <v>5.3066000000000002E-2</v>
-      </c>
-      <c r="H16" s="16">
-        <f>1/H12*2</f>
-        <v>2.6533000000000001E-2</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="16">
         <f>(B16/180)*B19</f>
-        <v>-6.7217087568146275E-2</v>
+        <v>-0.13443417513629255</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" ref="C17:H17" si="3">(C16/180)*C19</f>
-        <v>-6.6208648521687688E-2</v>
+        <f t="shared" ref="C17:H17" si="4">(C16/180)*C19</f>
+        <v>-0.13241729704337538</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="3"/>
-        <v>-6.265337803390314E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.12530675606780628</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="3"/>
-        <v>-5.3066000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.106132</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="3"/>
-        <v>-3.7402655491524217E-2</v>
+        <f t="shared" si="4"/>
+        <v>-7.4805310983048434E-2</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="3"/>
-        <v>-2.2394959467394521E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.4789918934789043E-2</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="3"/>
-        <v>-1.2216233006747715E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.443246601349543E-2</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -9045,65 +9051,65 @@
         <v>11</v>
       </c>
       <c r="B18" s="16">
-        <f>1/(SQRT(1+B13^2))</f>
+        <f t="shared" ref="B18:H18" si="5">1/(SQRT(1+B13^2))</f>
         <v>0.99227787671366774</v>
       </c>
       <c r="C18" s="16">
-        <f>1/(SQRT(1+C13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="D18" s="16">
-        <f>1/(SQRT(1+D13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="E18" s="16">
-        <f>1/(SQRT(1+E13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="F18" s="16">
-        <f>1/(SQRT(1+F13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.44721359549995793</v>
       </c>
       <c r="G18" s="16">
-        <f>1/(SQRT(1+G13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.24253562503633297</v>
       </c>
       <c r="H18" s="16">
-        <f>1/(SQRT(1+H13^2))</f>
+        <f t="shared" si="5"/>
         <v>0.12403473458920847</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16">
-        <f>-DEGREES(ATAN(B13))</f>
+        <f t="shared" ref="B19:H19" si="6">-DEGREES(ATAN(B13))</f>
         <v>-7.1250163489017977</v>
       </c>
       <c r="C19" s="16">
-        <f>-DEGREES(ATAN(C13))</f>
+        <f t="shared" si="6"/>
         <v>-14.036243467926479</v>
       </c>
       <c r="D19" s="16">
-        <f>-DEGREES(ATAN(D13))</f>
+        <f t="shared" si="6"/>
         <v>-26.56505117707799</v>
       </c>
       <c r="E19" s="16">
-        <f>-DEGREES(ATAN(E13))</f>
+        <f t="shared" si="6"/>
         <v>-45</v>
       </c>
       <c r="F19" s="16">
-        <f>-DEGREES(ATAN(F13))</f>
+        <f t="shared" si="6"/>
         <v>-63.43494882292201</v>
       </c>
       <c r="G19" s="16">
-        <f>-DEGREES(ATAN(G13))</f>
+        <f t="shared" si="6"/>
         <v>-75.963756532073532</v>
       </c>
       <c r="H19" s="16">
-        <f>-DEGREES(ATAN(H13))</f>
+        <f t="shared" si="6"/>
         <v>-82.874983651098205</v>
       </c>
       <c r="I19" s="3"/>
@@ -9199,7 +9205,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9227,7 +9233,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11">
         <f>B2*1</f>
@@ -9241,7 +9247,7 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11">
         <f>B2*100</f>
@@ -9255,7 +9261,7 @@
     </row>
     <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
         <v>3</v>
@@ -9264,7 +9270,7 @@
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
         <f>D4*D5</f>
@@ -9274,7 +9280,7 @@
     </row>
     <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
         <f>1/(2*3.14*D5*D4)</f>
@@ -9309,7 +9315,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="13">
         <f>$B$8/8</f>
@@ -9341,173 +9347,173 @@
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="13">
-        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
+        <f>B12/$B$8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" ref="C13:H13" si="0">C12/$B$8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="C13" s="13">
-        <f>1/(2*3.14*C12*$D$4*$D$5)</f>
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
-        <f>1/(2*3.14*D12*$D$4*$D$5)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="13">
-        <f>1/(2*3.14*E12*$D$4*$D$5)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
-        <f>1/(2*3.14*F12*$D$4*$D$5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="13">
-        <f>1/(2*3.14*G12*$D$4*$D$5)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="13">
-        <f>1/(2*3.14*H12*$D$4*$D$5)</f>
-        <v>0.125</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="13">
         <f>$B$6</f>
         <v>3</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:H14" si="0">$B$6</f>
+        <f t="shared" ref="C14:H14" si="1">$B$6</f>
         <v>3</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" ref="B15:H15" si="1">B14*B18</f>
+        <f t="shared" ref="B15:H15" si="2">B14*B18</f>
         <v>0.35599532759198782</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62469504755442429</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89442719099991597</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89442719099991597</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62469504755442429</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35599532759198782</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="13">
-        <f>1/B12*2</f>
+        <f t="shared" ref="B16:H16" si="3">1/B12*2</f>
         <v>1.6981120000000001</v>
       </c>
       <c r="C16" s="13">
-        <f>1/C12*2</f>
+        <f t="shared" si="3"/>
         <v>0.84905600000000003</v>
       </c>
       <c r="D16" s="13">
-        <f>1/D12*2</f>
+        <f t="shared" si="3"/>
         <v>0.42452800000000002</v>
       </c>
       <c r="E16" s="13">
-        <f>1/E12*2</f>
+        <f t="shared" si="3"/>
         <v>0.21226400000000001</v>
       </c>
       <c r="F16" s="13">
-        <f>1/F12*2</f>
+        <f t="shared" si="3"/>
         <v>0.106132</v>
       </c>
       <c r="G16" s="13">
-        <f>1/G12*2</f>
+        <f t="shared" si="3"/>
         <v>5.3066000000000002E-2</v>
       </c>
       <c r="H16" s="13">
-        <f>1/H12*2</f>
+        <f t="shared" si="3"/>
         <v>2.6533000000000001E-2</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="13">
         <f>(B16/180)*B19</f>
-        <v>-0.65231596971941963</v>
+        <v>0.65231596971941963</v>
       </c>
       <c r="C17" s="13">
-        <f t="shared" ref="C17:H17" si="2">(C16/180)*C19</f>
-        <v>-0.24217054357230713</v>
+        <f t="shared" ref="C17:H17" si="4">(C16/180)*C19</f>
+        <v>0.24217054357230713</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="2"/>
-        <v>-6.265337803390314E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.265337803390314E-2</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="2"/>
-        <v>1.5663344508475785E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.5663344508475785E-2</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="2"/>
-        <v>1.5135658973269196E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.5135658973269196E-2</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="2"/>
-        <v>1.0192437026865932E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.0192437026865932E-2</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -9520,62 +9526,62 @@
         <v>0.11866510919732927</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" ref="C18:H18" si="3">1/(SQRT((1/C13-C13)^2+9))</f>
+        <f t="shared" ref="C18:H18" si="5">1/(SQRT((1/C13-C13)^2+9))</f>
         <v>0.20823168251814142</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29814239699997197</v>
       </c>
       <c r="E18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29814239699997197</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20823168251814142</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11866510919732927</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="13">
         <f>DEGREES(ATAN((1-B13^2)/(3*B13)))</f>
+        <v>69.145541960421653</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:H19" si="6">DEGREES(ATAN((1-C13^2)/(3*C13)))</f>
+        <v>51.340191745909912</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="6"/>
+        <v>26.56505117707799</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="6"/>
+        <v>-26.56505117707799</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="6"/>
+        <v>-51.340191745909912</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="6"/>
         <v>-69.145541960421653</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" ref="C19:H19" si="4">DEGREES(ATAN((1-C13^2)/(3*C13)))</f>
-        <v>-51.340191745909912</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="4"/>
-        <v>-26.56505117707799</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="4"/>
-        <v>26.56505117707799</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="4"/>
-        <v>51.340191745909912</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="4"/>
-        <v>69.145541960421653</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -9667,7 +9673,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9697,7 +9703,7 @@
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="15">
         <f>B2*2</f>
@@ -9710,7 +9716,7 @@
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15">
         <f>B2*60</f>
@@ -9723,7 +9729,7 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -9731,7 +9737,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15">
         <f>D4*D5</f>
@@ -9740,7 +9746,7 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="15">
         <f>1/(2*3.14*D5*D4)</f>
@@ -9780,7 +9786,7 @@
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16">
         <f>$B$8/8</f>
@@ -9813,42 +9819,42 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
+      <c r="A13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="16">
-        <f>1/(2*3.14*B12*$D$4*$D$5)</f>
-        <v>7.9999999999999982</v>
+        <f>B12/$B$8</f>
+        <v>0.125</v>
       </c>
       <c r="C13" s="16">
-        <f t="shared" ref="C13:H13" si="0">1/(2*3.14*C12*$D$4*$D$5)</f>
-        <v>3.9999999999999991</v>
+        <f t="shared" ref="C13:H13" si="0">C12/$B$8</f>
+        <v>0.25</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="0"/>
-        <v>1.9999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
-        <v>0.49999999999999989</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>0.24999999999999994</v>
+        <v>4</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>0.12499999999999997</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16">
         <f>$B$6</f>
@@ -9882,7 +9888,7 @@
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="16">
         <f>B14*B18</f>
@@ -9890,19 +9896,19 @@
       </c>
       <c r="C15" s="16">
         <f t="shared" ref="C15:H15" si="2">C14*C18</f>
-        <v>0.78086880944303028</v>
+        <v>0.78086880944303039</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="2"/>
-        <v>0.44721359549995776</v>
+        <v>0.44721359549995798</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="2"/>
-        <v>1.4802973661668756E-16</v>
+        <v>0</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="2"/>
-        <v>0.44721359549995804</v>
+        <v>0.44721359549995798</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="2"/>
@@ -9916,69 +9922,69 @@
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="16">
-        <f>1/B12*2</f>
+        <f t="shared" ref="B16:H16" si="3">1/B12*2</f>
         <v>2.0377344000000002</v>
       </c>
       <c r="C16" s="16">
-        <f>1/C12*2</f>
+        <f t="shared" si="3"/>
         <v>1.0188672000000001</v>
       </c>
       <c r="D16" s="16">
-        <f>1/D12*2</f>
+        <f t="shared" si="3"/>
         <v>0.50943360000000004</v>
       </c>
       <c r="E16" s="16">
-        <f>1/E12*2</f>
+        <f t="shared" si="3"/>
         <v>0.25471680000000002</v>
       </c>
       <c r="F16" s="16">
-        <f>1/F12*2</f>
+        <f t="shared" si="3"/>
         <v>0.12735840000000001</v>
       </c>
       <c r="G16" s="16">
-        <f>1/G12*2</f>
+        <f t="shared" si="3"/>
         <v>6.3679200000000005E-2</v>
       </c>
       <c r="H16" s="16">
-        <f>1/H12*2</f>
+        <f t="shared" si="3"/>
         <v>3.1839600000000003E-2</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="16">
         <f>(B16/180)*B19</f>
-        <v>0.23608803633669651</v>
+        <v>-0.23608803633669645</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" ref="C17:H17" si="3">(C16/180)*C19</f>
-        <v>0.21882894771323147</v>
+        <f t="shared" ref="C17:H17" si="4">(C16/180)*C19</f>
+        <v>-0.21882894771323147</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="3"/>
-        <v>0.17953274635931626</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.12735840000000001</v>
+        <f t="shared" si="4"/>
+        <v>-0.17953274635931624</v>
+      </c>
+      <c r="E17" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="3"/>
-        <v>-4.4883186589829059E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.4883186589829059E-2</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="3"/>
-        <v>-1.3676809232076963E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.3676809232076967E-2</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="3"/>
-        <v>-3.6888755677608807E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.688875567760882E-3</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -9987,66 +9993,66 @@
         <v>11</v>
       </c>
       <c r="B18" s="16">
-        <f>ABS((1-B13^2)/(3*SQRT((1-B13^2)^2+9*(B13^2))))</f>
+        <f t="shared" ref="B18:H18" si="5">ABS((1-B13^2)/(3*SQRT((1-B13^2)^2+9*(B13^2))))</f>
         <v>0.31149591164298934</v>
       </c>
       <c r="C18" s="16">
-        <f>ABS((1-C13^2)/(3*SQRT((1-C13^2)^2+9*(C13^2))))</f>
-        <v>0.26028960314767674</v>
+        <f t="shared" si="5"/>
+        <v>0.2602896031476768</v>
       </c>
       <c r="D18" s="16">
-        <f>ABS((1-D13^2)/(3*SQRT((1-D13^2)^2+9*(D13^2))))</f>
-        <v>0.14907119849998593</v>
+        <f t="shared" si="5"/>
+        <v>0.14907119849998599</v>
       </c>
       <c r="E18" s="16">
-        <f>ABS((1-E13^2)/(3*SQRT((1-E13^2)^2+9*(E13^2))))</f>
-        <v>4.9343245538895856E-17</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F18" s="16">
-        <f>ABS((1-F13^2)/(3*SQRT((1-F13^2)^2+9*(F13^2))))</f>
-        <v>0.14907119849998601</v>
+        <f t="shared" si="5"/>
+        <v>0.14907119849998599</v>
       </c>
       <c r="G18" s="16">
-        <f>ABS((1-G13^2)/(3*SQRT((1-G13^2)^2+9*(G13^2))))</f>
+        <f t="shared" si="5"/>
         <v>0.2602896031476768</v>
       </c>
       <c r="H18" s="16">
-        <f>ABS((1-H13^2)/(3*SQRT((1-H13^2)^2+9*(H13^2))))</f>
+        <f t="shared" si="5"/>
         <v>0.31149591164298934</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16">
-        <f>DEGREES(ATAN((3*B13)/(B13^2-1)))</f>
-        <v>20.854458039578351</v>
+        <f t="shared" ref="B19:H19" si="6">DEGREES(ATAN((3*B13)/(B13^2-1)))</f>
+        <v>-20.854458039578347</v>
       </c>
       <c r="C19" s="16">
-        <f>DEGREES(ATAN((3*C13)/(C13^2-1)))</f>
+        <f t="shared" si="6"/>
+        <v>-38.659808254090095</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="6"/>
+        <v>-63.43494882292201</v>
+      </c>
+      <c r="E19" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="6"/>
+        <v>63.43494882292201</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="6"/>
         <v>38.659808254090095</v>
       </c>
-      <c r="D19" s="16">
-        <f>DEGREES(ATAN((3*D13)/(D13^2-1)))</f>
-        <v>63.434948822922017</v>
-      </c>
-      <c r="E19" s="16">
-        <f>DEGREES(ATAN((3*E13)/(E13^2-1)))</f>
-        <v>-90</v>
-      </c>
-      <c r="F19" s="16">
-        <f>DEGREES(ATAN((3*F13)/(F13^2-1)))</f>
-        <v>-63.43494882292201</v>
-      </c>
-      <c r="G19" s="16">
-        <f>DEGREES(ATAN((3*G13)/(G13^2-1)))</f>
-        <v>-38.65980825409008</v>
-      </c>
       <c r="H19" s="16">
-        <f>DEGREES(ATAN((3*H13)/(H13^2-1)))</f>
-        <v>-20.85445803957834</v>
+        <f t="shared" si="6"/>
+        <v>20.854458039578347</v>
       </c>
       <c r="I19" s="3"/>
     </row>

--- a/lr4/Фильтры.xlsx
+++ b/lr4/Фильтры.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Делитель напряжения" sheetId="1" r:id="rId1"/>
@@ -1725,6 +1725,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2075,6 +2076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2425,6 +2427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2776,6 +2779,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8258,7 +8262,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8730,8 +8734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9205,7 +9209,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9672,8 +9676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
